--- a/SchedulingData/dynamic16/pso/scheduling1_2.xlsx
+++ b/SchedulingData/dynamic16/pso/scheduling1_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,7 +462,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>73.59999999999999</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="E2" t="n">
         <v>25.8</v>
@@ -481,59 +481,59 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>71.7</v>
+        <v>60</v>
       </c>
       <c r="E3" t="n">
-        <v>26.96</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>64.76000000000001</v>
+        <v>136.8</v>
       </c>
       <c r="E4" t="n">
-        <v>26.204</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>64.76000000000001</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>141.22</v>
+        <v>40.8</v>
       </c>
       <c r="E5" t="n">
-        <v>21.668</v>
+        <v>26.62</v>
       </c>
     </row>
     <row r="6">
@@ -542,17 +542,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D6" t="n">
-        <v>49.78</v>
+        <v>123.22</v>
       </c>
       <c r="E6" t="n">
-        <v>27.192</v>
+        <v>22.488</v>
       </c>
     </row>
     <row r="7">
@@ -561,131 +561,131 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="D7" t="n">
-        <v>93.62</v>
+        <v>101</v>
       </c>
       <c r="E7" t="n">
-        <v>25.788</v>
+        <v>22.24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>93.62</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>172.06</v>
+        <v>82.22</v>
       </c>
       <c r="E8" t="n">
-        <v>21.084</v>
+        <v>25.968</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>49.78</v>
+        <v>82.22</v>
       </c>
       <c r="D9" t="n">
-        <v>93.34</v>
+        <v>135.2</v>
       </c>
       <c r="E9" t="n">
-        <v>23.976</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>141.22</v>
+        <v>136.8</v>
       </c>
       <c r="D10" t="n">
-        <v>199.72</v>
+        <v>199.1</v>
       </c>
       <c r="E10" t="n">
-        <v>17.948</v>
+        <v>18.48</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>199.72</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>259.42</v>
+        <v>50.3</v>
       </c>
       <c r="E11" t="n">
-        <v>14.588</v>
+        <v>27.16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>71.7</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>144.28</v>
+        <v>65.92</v>
       </c>
       <c r="E12" t="n">
-        <v>23.792</v>
+        <v>26.568</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>73.59999999999999</v>
+        <v>135.2</v>
       </c>
       <c r="D13" t="n">
-        <v>123.1</v>
+        <v>192.7</v>
       </c>
       <c r="E13" t="n">
-        <v>22.96</v>
+        <v>19.16</v>
       </c>
     </row>
     <row r="14">
@@ -694,55 +694,55 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>93.34</v>
+        <v>123.22</v>
       </c>
       <c r="D14" t="n">
-        <v>173.24</v>
+        <v>181.54</v>
       </c>
       <c r="E14" t="n">
-        <v>19.596</v>
+        <v>18.276</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>173.24</v>
+        <v>65.92</v>
       </c>
       <c r="D15" t="n">
-        <v>231.6</v>
+        <v>145.82</v>
       </c>
       <c r="E15" t="n">
-        <v>16.38</v>
+        <v>23.688</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>123.1</v>
+        <v>181.54</v>
       </c>
       <c r="D16" t="n">
-        <v>176.52</v>
+        <v>259.98</v>
       </c>
       <c r="E16" t="n">
-        <v>18.748</v>
+        <v>13.572</v>
       </c>
     </row>
     <row r="17">
@@ -751,79 +751,79 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>259.42</v>
+        <v>192.7</v>
       </c>
       <c r="D17" t="n">
-        <v>353.12</v>
+        <v>241.58</v>
       </c>
       <c r="E17" t="n">
-        <v>11.288</v>
+        <v>16.872</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>353.12</v>
+        <v>199.1</v>
       </c>
       <c r="D18" t="n">
-        <v>402.62</v>
+        <v>267.32</v>
       </c>
       <c r="E18" t="n">
-        <v>8.968</v>
+        <v>14.268</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>144.28</v>
+        <v>259.98</v>
       </c>
       <c r="D19" t="n">
-        <v>208.12</v>
+        <v>307.76</v>
       </c>
       <c r="E19" t="n">
-        <v>21.008</v>
+        <v>9.923999999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>231.6</v>
+        <v>145.82</v>
       </c>
       <c r="D20" t="n">
-        <v>284.28</v>
+        <v>209.82</v>
       </c>
       <c r="E20" t="n">
-        <v>12.732</v>
+        <v>21.368</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -831,89 +831,89 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>172.06</v>
+        <v>209.82</v>
       </c>
       <c r="D21" t="n">
-        <v>244.96</v>
+        <v>287.52</v>
       </c>
       <c r="E21" t="n">
-        <v>16.924</v>
+        <v>17.208</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>284.28</v>
+        <v>267.32</v>
       </c>
       <c r="D22" t="n">
-        <v>327.98</v>
+        <v>327.32</v>
       </c>
       <c r="E22" t="n">
-        <v>9.492000000000001</v>
+        <v>9.888</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>244.96</v>
+        <v>287.52</v>
       </c>
       <c r="D23" t="n">
-        <v>306.38</v>
+        <v>330.76</v>
       </c>
       <c r="E23" t="n">
-        <v>12.892</v>
+        <v>14.504</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>327.98</v>
+        <v>330.76</v>
       </c>
       <c r="D24" t="n">
-        <v>369.7</v>
+        <v>389.16</v>
       </c>
       <c r="E24" t="n">
-        <v>6.94</v>
+        <v>10.784</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>369.7</v>
+        <v>101</v>
       </c>
       <c r="D25" t="n">
-        <v>435.72</v>
+        <v>168.1</v>
       </c>
       <c r="E25" t="n">
-        <v>3.948</v>
+        <v>19.12</v>
       </c>
     </row>
     <row r="26">
@@ -922,93 +922,93 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>208.12</v>
+        <v>327.32</v>
       </c>
       <c r="D26" t="n">
-        <v>248.22</v>
+        <v>384</v>
       </c>
       <c r="E26" t="n">
-        <v>18.128</v>
+        <v>6.36</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>306.38</v>
+        <v>50.3</v>
       </c>
       <c r="D27" t="n">
-        <v>335.66</v>
+        <v>101.46</v>
       </c>
       <c r="E27" t="n">
-        <v>10.604</v>
+        <v>23.184</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>402.62</v>
+        <v>307.76</v>
       </c>
       <c r="D28" t="n">
-        <v>468.76</v>
+        <v>348.1</v>
       </c>
       <c r="E28" t="n">
-        <v>5.484</v>
+        <v>7.02</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>176.52</v>
+        <v>348.1</v>
       </c>
       <c r="D29" t="n">
-        <v>248.62</v>
+        <v>402.26</v>
       </c>
       <c r="E29" t="n">
-        <v>15.628</v>
+        <v>3.224</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>335.66</v>
+        <v>241.58</v>
       </c>
       <c r="D30" t="n">
-        <v>403.06</v>
+        <v>300.88</v>
       </c>
       <c r="E30" t="n">
-        <v>7.484</v>
+        <v>13.572</v>
       </c>
     </row>
     <row r="31">
@@ -1017,79 +1017,79 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>248.22</v>
+        <v>384</v>
       </c>
       <c r="D31" t="n">
-        <v>300.96</v>
+        <v>445.3</v>
       </c>
       <c r="E31" t="n">
-        <v>13.984</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>402.26</v>
       </c>
       <c r="D32" t="n">
-        <v>64.56</v>
+        <v>468.26</v>
       </c>
       <c r="E32" t="n">
-        <v>27.184</v>
+        <v>0.704</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>403.06</v>
+        <v>468.26</v>
       </c>
       <c r="D33" t="n">
-        <v>464.26</v>
+        <v>538.75</v>
       </c>
       <c r="E33" t="n">
-        <v>2.984</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>468.76</v>
+        <v>445.3</v>
       </c>
       <c r="D34" t="n">
-        <v>531.26</v>
+        <v>496.24</v>
       </c>
       <c r="E34" t="n">
-        <v>1.844</v>
+        <v>0.856</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>531.26</v>
+        <v>496.24</v>
       </c>
       <c r="D35" t="n">
-        <v>619.0700000000001</v>
+        <v>590.9299999999999</v>
       </c>
       <c r="E35" t="n">
         <v>30</v>
@@ -1108,40 +1108,40 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>64.56</v>
+        <v>300.88</v>
       </c>
       <c r="D36" t="n">
-        <v>125.84</v>
+        <v>375.18</v>
       </c>
       <c r="E36" t="n">
-        <v>23.656</v>
+        <v>10.212</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>125.84</v>
+        <v>101.46</v>
       </c>
       <c r="D37" t="n">
-        <v>176.36</v>
+        <v>144.92</v>
       </c>
       <c r="E37" t="n">
-        <v>20.224</v>
+        <v>19.968</v>
       </c>
     </row>
     <row r="38">
@@ -1150,55 +1150,55 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>176.36</v>
+        <v>389.16</v>
       </c>
       <c r="D38" t="n">
-        <v>229.78</v>
+        <v>436.36</v>
       </c>
       <c r="E38" t="n">
-        <v>16.012</v>
+        <v>7.704</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>229.78</v>
+        <v>375.18</v>
       </c>
       <c r="D39" t="n">
-        <v>277.56</v>
+        <v>429.26</v>
       </c>
       <c r="E39" t="n">
-        <v>12.364</v>
+        <v>7.404</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>300.96</v>
+        <v>436.36</v>
       </c>
       <c r="D40" t="n">
-        <v>355.22</v>
+        <v>513.5599999999999</v>
       </c>
       <c r="E40" t="n">
-        <v>10.188</v>
+        <v>4.584</v>
       </c>
     </row>
     <row r="41">
@@ -1207,93 +1207,93 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>277.56</v>
+        <v>513.5599999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>334.66</v>
+        <v>558.66</v>
       </c>
       <c r="E41" t="n">
-        <v>8.763999999999999</v>
+        <v>1.204</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>355.22</v>
+        <v>558.66</v>
       </c>
       <c r="D42" t="n">
-        <v>429.92</v>
+        <v>628.15</v>
       </c>
       <c r="E42" t="n">
-        <v>5.808</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>334.66</v>
+        <v>590.9299999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>414.34</v>
+        <v>654.83</v>
       </c>
       <c r="E43" t="n">
-        <v>4.396</v>
+        <v>26.76</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>429.92</v>
+        <v>168.1</v>
       </c>
       <c r="D44" t="n">
-        <v>479.92</v>
+        <v>224.86</v>
       </c>
       <c r="E44" t="n">
-        <v>2.428</v>
+        <v>15.064</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>248.62</v>
+        <v>654.83</v>
       </c>
       <c r="D45" t="n">
-        <v>299.74</v>
+        <v>717.03</v>
       </c>
       <c r="E45" t="n">
-        <v>12.636</v>
+        <v>23.16</v>
       </c>
     </row>
     <row r="46">
@@ -1302,109 +1302,109 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>479.92</v>
+        <v>717.03</v>
       </c>
       <c r="D46" t="n">
-        <v>547.0599999999999</v>
+        <v>773.55</v>
       </c>
       <c r="E46" t="n">
-        <v>30</v>
+        <v>20.608</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>547.0599999999999</v>
+        <v>538.75</v>
       </c>
       <c r="D47" t="n">
-        <v>612.02</v>
+        <v>608.3099999999999</v>
       </c>
       <c r="E47" t="n">
-        <v>27.144</v>
+        <v>27.184</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>464.26</v>
+        <v>144.92</v>
       </c>
       <c r="D48" t="n">
-        <v>540.1900000000001</v>
+        <v>195</v>
       </c>
       <c r="E48" t="n">
-        <v>30</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>540.1900000000001</v>
+        <v>429.26</v>
       </c>
       <c r="D49" t="n">
-        <v>617.45</v>
+        <v>495.4</v>
       </c>
       <c r="E49" t="n">
-        <v>25.944</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>414.34</v>
+        <v>495.4</v>
       </c>
       <c r="D50" t="n">
-        <v>475.3</v>
+        <v>552.2</v>
       </c>
       <c r="E50" t="n">
-        <v>0.42</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>475.3</v>
+        <v>552.2</v>
       </c>
       <c r="D51" t="n">
-        <v>551.36</v>
+        <v>656.92</v>
       </c>
       <c r="E51" t="n">
         <v>30</v>
@@ -1416,36 +1416,36 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>299.74</v>
+        <v>195</v>
       </c>
       <c r="D52" t="n">
-        <v>366.64</v>
+        <v>262.44</v>
       </c>
       <c r="E52" t="n">
-        <v>9.555999999999999</v>
+        <v>11.456</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>366.64</v>
+        <v>224.86</v>
       </c>
       <c r="D53" t="n">
-        <v>455.64</v>
+        <v>316.42</v>
       </c>
       <c r="E53" t="n">
-        <v>6.256</v>
+        <v>10.528</v>
       </c>
     </row>
     <row r="54">
@@ -1454,36 +1454,36 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>455.64</v>
+        <v>262.44</v>
       </c>
       <c r="D54" t="n">
-        <v>515.04</v>
+        <v>335.12</v>
       </c>
       <c r="E54" t="n">
-        <v>2.956</v>
+        <v>7.808</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>551.36</v>
+        <v>316.42</v>
       </c>
       <c r="D55" t="n">
-        <v>621.84</v>
+        <v>355.56</v>
       </c>
       <c r="E55" t="n">
-        <v>25.632</v>
+        <v>7.744</v>
       </c>
     </row>
     <row r="56">
@@ -1492,55 +1492,55 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>621.84</v>
+        <v>628.15</v>
       </c>
       <c r="D56" t="n">
-        <v>686.9400000000001</v>
+        <v>693.53</v>
       </c>
       <c r="E56" t="n">
-        <v>22.252</v>
+        <v>25.632</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>612.02</v>
+        <v>335.12</v>
       </c>
       <c r="D57" t="n">
-        <v>643.0599999999999</v>
+        <v>378.82</v>
       </c>
       <c r="E57" t="n">
-        <v>24.68</v>
+        <v>4.568</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>435.72</v>
+        <v>656.92</v>
       </c>
       <c r="D58" t="n">
-        <v>500.66</v>
+        <v>728.14</v>
       </c>
       <c r="E58" t="n">
-        <v>1.044</v>
+        <v>27.008</v>
       </c>
     </row>
     <row r="59">
@@ -1549,74 +1549,74 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>500.66</v>
+        <v>608.3099999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>595.0700000000001</v>
+        <v>682.27</v>
       </c>
       <c r="E59" t="n">
-        <v>30</v>
+        <v>23.388</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>595.0700000000001</v>
+        <v>728.14</v>
       </c>
       <c r="D60" t="n">
-        <v>632.17</v>
+        <v>758.9400000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>27.48</v>
+        <v>24.568</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>619.0700000000001</v>
+        <v>693.53</v>
       </c>
       <c r="D61" t="n">
-        <v>684.77</v>
+        <v>743.1900000000001</v>
       </c>
       <c r="E61" t="n">
-        <v>27.56</v>
+        <v>22.776</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>686.9400000000001</v>
+        <v>378.82</v>
       </c>
       <c r="D62" t="n">
-        <v>735.54</v>
+        <v>437.38</v>
       </c>
       <c r="E62" t="n">
-        <v>19.012</v>
+        <v>1.352</v>
       </c>
     </row>
     <row r="63">
@@ -1625,14 +1625,14 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>515.04</v>
+        <v>437.38</v>
       </c>
       <c r="D63" t="n">
-        <v>581.13</v>
+        <v>526.38</v>
       </c>
       <c r="E63" t="n">
         <v>30</v>
@@ -1640,40 +1640,40 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>581.13</v>
+        <v>355.56</v>
       </c>
       <c r="D64" t="n">
-        <v>619.33</v>
+        <v>431.46</v>
       </c>
       <c r="E64" t="n">
-        <v>26.88</v>
+        <v>3.244</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>617.45</v>
+        <v>682.27</v>
       </c>
       <c r="D65" t="n">
-        <v>670.59</v>
+        <v>746.47</v>
       </c>
       <c r="E65" t="n">
-        <v>23.24</v>
+        <v>20.088</v>
       </c>
     </row>
     <row r="66">
@@ -1682,36 +1682,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>619.33</v>
+        <v>526.38</v>
       </c>
       <c r="D66" t="n">
-        <v>690.9299999999999</v>
+        <v>573.3</v>
       </c>
       <c r="E66" t="n">
-        <v>23.8</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>1</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>pond26</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>643.0599999999999</v>
-      </c>
-      <c r="D67" t="n">
-        <v>691.46</v>
-      </c>
-      <c r="E67" t="n">
-        <v>20.48</v>
+        <v>27.008</v>
       </c>
     </row>
   </sheetData>
